--- a/Dataset/Analysis_plots/transaction_comparison_table.xlsx
+++ b/Dataset/Analysis_plots/transaction_comparison_table.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.76251979414094</v>
+        <v>26.04483967935872</v>
       </c>
       <c r="C2" t="n">
-        <v>25.34482255002191</v>
+        <v>25.56580112127471</v>
       </c>
       <c r="D2" t="n">
-        <v>25.97462954647508</v>
+        <v>26.29115460476407</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" t="n">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D5" t="n">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -545,7 +545,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
         <v>15</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
         <v>28</v>
@@ -580,7 +580,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="n">
         <v>73</v>
       </c>
       <c r="D10" t="n">
-        <v>79.94999999999891</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C11" t="n">
-        <v>216.54</v>
+        <v>217.2299999999996</v>
       </c>
       <c r="D11" t="n">
-        <v>218.3899999999994</v>
+        <v>219.1900000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Analysis_plots/transaction_comparison_table.xlsx
+++ b/Dataset/Analysis_plots/transaction_comparison_table.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.04483967935872</v>
+        <v>26.53219192126307</v>
       </c>
       <c r="C2" t="n">
-        <v>25.56580112127471</v>
+        <v>25.72770653146436</v>
       </c>
       <c r="D2" t="n">
-        <v>26.29115460476407</v>
+        <v>26.95149574318519</v>
       </c>
     </row>
     <row r="3">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C5" t="n">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D5" t="n">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
         <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
         <v>73</v>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>219</v>
+        <v>221.9300000000003</v>
       </c>
       <c r="C11" t="n">
-        <v>217.2299999999996</v>
+        <v>216.9499999999998</v>
       </c>
       <c r="D11" t="n">
-        <v>219.1900000000005</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Analysis_plots/transaction_comparison_table.xlsx
+++ b/Dataset/Analysis_plots/transaction_comparison_table.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.53219192126307</v>
+        <v>26.53611894386055</v>
       </c>
       <c r="C2" t="n">
-        <v>25.72770653146436</v>
+        <v>25.72755741127349</v>
       </c>
       <c r="D2" t="n">
-        <v>26.95149574318519</v>
+        <v>26.95765625</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221.9300000000003</v>
+        <v>221.9599999999991</v>
       </c>
       <c r="C11" t="n">
         <v>216.9499999999998</v>
